--- a/Symphony/2021/Others/Document/Final/Mugdho Corporation Expence Top Sheet.xlsx
+++ b/Symphony/2021/Others/Document/Final/Mugdho Corporation Expence Top Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -30,9 +30,6 @@
     <t>Month</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>S.N</t>
   </si>
   <si>
@@ -70,6 +67,15 @@
   </si>
   <si>
     <t>April_2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salary </t>
+  </si>
+  <si>
+    <t>General Cost</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
   </si>
 </sst>
 </file>
@@ -114,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -138,26 +144,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -167,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -199,16 +188,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -515,46 +510,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G14" sqref="G13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="17.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -562,145 +569,237 @@
         <v>1</v>
       </c>
       <c r="C4" s="8">
-        <v>52721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72200</v>
+      </c>
+      <c r="D4" s="8">
+        <v>72471</v>
+      </c>
+      <c r="E4" s="3">
+        <f>D4+C4</f>
+        <v>144671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
-        <v>47185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="13">
+        <v>48700</v>
+      </c>
+      <c r="D5" s="3">
+        <v>80705</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" ref="E5:E15" si="0">D5+C5</f>
+        <v>129405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3">
-        <v>51598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C6" s="13">
+        <v>71450</v>
+      </c>
+      <c r="D6" s="3">
+        <v>56638</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>128088</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13">
+        <v>48700</v>
+      </c>
+      <c r="D7" s="3">
         <v>44168</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>92868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3">
-        <v>79492</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C8" s="13">
+        <v>80700</v>
+      </c>
+      <c r="D8" s="3">
+        <v>84492</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>165192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3">
-        <v>68903</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C9" s="13">
+        <v>80700</v>
+      </c>
+      <c r="D9" s="3">
+        <v>72103</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>152803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3">
-        <v>72500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C10" s="13">
+        <v>80700</v>
+      </c>
+      <c r="D10" s="3">
+        <v>73480</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>154180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="3">
-        <v>79822</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C11" s="13">
+        <v>80700</v>
+      </c>
+      <c r="D11" s="3">
+        <v>80522</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>161222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3">
-        <v>147204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C12" s="13">
+        <v>70600</v>
+      </c>
+      <c r="D12" s="3">
+        <v>147444</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>218044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3">
+        <v>14</v>
+      </c>
+      <c r="C13" s="13">
+        <v>75600</v>
+      </c>
+      <c r="D13" s="3">
         <v>66027</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>141627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3">
+        <v>15</v>
+      </c>
+      <c r="C14" s="13">
+        <v>75600</v>
+      </c>
+      <c r="D14" s="3">
         <v>65235</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>140835</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="3">
+        <v>16</v>
+      </c>
+      <c r="C15" s="13">
+        <v>75100</v>
+      </c>
+      <c r="D15" s="3">
         <v>58354</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>6</v>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>133454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>5</v>
       </c>
       <c r="B16" s="14"/>
-      <c r="C16" s="10">
+      <c r="C16" s="12">
         <f>SUM(C4:C15)</f>
-        <v>833209</v>
+        <v>860750</v>
+      </c>
+      <c r="D16" s="12">
+        <f>SUM(D4:D15)</f>
+        <v>901639</v>
+      </c>
+      <c r="E16" s="10">
+        <f>SUM(E4:E15)</f>
+        <v>1762389</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
     <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Symphony/2021/Others/Document/Final/Mugdho Corporation Expence Top Sheet.xlsx
+++ b/Symphony/2021/Others/Document/Final/Mugdho Corporation Expence Top Sheet.xlsx
@@ -16,17 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
   <si>
-    <t>May_2020</t>
-  </si>
-  <si>
-    <t>June_2020</t>
-  </si>
-  <si>
     <t>Month</t>
   </si>
   <si>
@@ -76,13 +70,22 @@
   </si>
   <si>
     <t>Total Cost</t>
+  </si>
+  <si>
+    <t>May_2021</t>
+  </si>
+  <si>
+    <t>June_2021</t>
+  </si>
+  <si>
+    <t>Distributior: Symphony Mobile(Edison Group)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +103,13 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -156,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -205,6 +215,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G13:G14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +545,7 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -535,270 +554,286 @@
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="13">
+        <v>71450</v>
+      </c>
+      <c r="D5" s="3">
+        <v>56638</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" ref="E5:E14" si="0">D5+C5</f>
+        <v>128088</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>72200</v>
-      </c>
-      <c r="D4" s="8">
-        <v>72471</v>
-      </c>
-      <c r="E4" s="3">
-        <f>D4+C4</f>
-        <v>144671</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="C6" s="13">
         <v>48700</v>
       </c>
-      <c r="D5" s="3">
-        <v>80705</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" ref="E5:E15" si="0">D5+C5</f>
-        <v>129405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="13">
-        <v>71450</v>
-      </c>
       <c r="D6" s="3">
-        <v>56638</v>
+        <v>44168</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>128088</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="13">
-        <v>48700</v>
+        <v>80700</v>
       </c>
       <c r="D7" s="3">
-        <v>44168</v>
+        <v>84492</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>92868</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>165192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="13">
         <v>80700</v>
       </c>
       <c r="D8" s="3">
-        <v>84492</v>
+        <v>72103</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>165192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>152803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="13">
         <v>80700</v>
       </c>
       <c r="D9" s="3">
-        <v>72103</v>
+        <v>73480</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>152803</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>154180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="13">
         <v>80700</v>
       </c>
       <c r="D10" s="3">
-        <v>73480</v>
+        <v>80522</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>154180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>161222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="13">
-        <v>80700</v>
+        <v>70600</v>
       </c>
       <c r="D11" s="3">
-        <v>80522</v>
+        <v>147444</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>161222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>218044</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="13">
-        <v>70600</v>
+        <v>75600</v>
       </c>
       <c r="D12" s="3">
-        <v>147444</v>
+        <v>66027</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>218044</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>141627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="13">
         <v>75600</v>
       </c>
       <c r="D13" s="3">
-        <v>66027</v>
+        <v>65235</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="0"/>
-        <v>141627</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>140835</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="13">
-        <v>75600</v>
+        <v>75100</v>
       </c>
       <c r="D14" s="3">
-        <v>65235</v>
+        <v>58354</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>140835</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>133454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
+        <v>11</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="8">
+        <v>112800</v>
+      </c>
+      <c r="D15" s="8">
+        <v>57454</v>
+      </c>
+      <c r="E15" s="3">
+        <f>D15+C15</f>
+        <v>170254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>12</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="13">
-        <v>75100</v>
-      </c>
-      <c r="D15" s="3">
-        <v>58354</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="0"/>
-        <v>133454</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="12">
-        <f>SUM(C4:C15)</f>
-        <v>860750</v>
-      </c>
-      <c r="D16" s="12">
-        <f>SUM(D4:D15)</f>
-        <v>901639</v>
-      </c>
-      <c r="E16" s="10">
-        <f>SUM(E4:E15)</f>
-        <v>1762389</v>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="13">
+        <v>75300</v>
+      </c>
+      <c r="D16" s="3">
+        <v>61737</v>
+      </c>
+      <c r="E16" s="3">
+        <f>D16+C16</f>
+        <v>137037</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="17">
+        <f>SUM(C5:C16)</f>
+        <v>927950</v>
+      </c>
+      <c r="D17" s="12">
+        <f>SUM(D5:D16)</f>
+        <v>867654</v>
+      </c>
+      <c r="E17" s="10">
+        <f>SUM(E5:E16)</f>
+        <v>1795604</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A16:B16"/>
+  <mergeCells count="4">
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
